--- a/Datos/Database by set/Set with text box/Xlsx sets/Betrayers of Kamigawa Promos (PBOK).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Betrayers of Kamigawa Promos (PBOK).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,126 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Budoka Pupil</t>
+          <t>('Budoka Pupil', ['{1}{G}{G}', 'Creature — Human Monk', 'Whenever you cast a Spirit or Arcane spell, you may put a ki counter on Budoka Pupil.', 'At the beginning of the end step, if there are two or more ki counters on Budoka Pupil, you may flip it.', '2/2', 'Ichiga, Who Topples Oaks', 'Legendary Creature — Spirit', 'Trample', 'Remove a ki counter from Ichiga, Who Topples Oaks: Target creature gets +2/+2 until end of turn.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Human Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Whenever you cast a Spirit or Arcane spell, you may put a ki counter on Budoka Pupil.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>At the beginning of the end step, if there are two or more ki counters on Budoka Pupil, you may flip it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ichiga, Who Topples Oaks</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Remove a ki counter from Ichiga, Who Topples Oaks: Target creature gets +2/+2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ink-Eyes, Servant of Oni</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Rat Ninja</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ninjutsu {3}{B}{B} ({3}{B}{B}, Return an unblocked attacker you control to hand: Put this card onto the battlefield from your hand tapped and attacking.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Whenever Ink-Eyes, Servant of Oni deals combat damage to a player, you may put target creature card from that player’s graveyard onto the battlefield under your control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{1}{B}: Regenerate Ink-Eyes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>5/4</t>
+          <t>('Ink-Eyes, Servant of Oni', ['{4}{B}{B}', 'Legendary Creature — Rat Ninja', 'Ninjutsu {3}{B}{B} ({3}{B}{B}, Return an unblocked attacker you control to hand: Put this card onto the battlefield from your hand tapped and attacking.)', 'Whenever Ink-Eyes, Servant of Oni deals combat damage to a player, you may put target creature card from that player’s graveyard onto the battlefield under your control.', '{1}{B}: Regenerate Ink-Eyes.', '5/4'])</t>
         </is>
       </c>
     </row>
